--- a/data/metadata/Informe-915-150014-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-915-150014-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>ano</t>
   </si>
@@ -52,15 +52,12 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:diputados</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
+    <t>iaest-measure:diputados</t>
+  </si>
+  <si>
     <t>iaest-measure:siglas</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-diputados.xlsx</t>
   </si>
 </sst>
 </file>
@@ -200,22 +197,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -223,34 +220,34 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -258,16 +255,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -294,9 +291,6 @@
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-915-150014-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-915-150014-TC-TM-TP.xlsx
@@ -11,81 +11,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>diputados</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>siglas</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>votos</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Siglas</t>
+  </si>
+  <si>
+    <t>Diputados</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Votos</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:orden</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:siglas</t>
+  </si>
+  <si>
+    <t>iaest-measure:diputados</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:diputados</t>
-  </si>
-  <si>
-    <t>iaest-measure:siglas</t>
-  </si>
-  <si>
-    <t>iaest-measure:orden</t>
-  </si>
-  <si>
     <t>iaest-measure:votos</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -197,22 +200,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -223,34 +226,34 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -258,39 +261,39 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-915-150014-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-915-150014-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Orden</t>
   </si>
@@ -79,13 +79,16 @@
     <t>municipio-nombre</t>
   </si>
   <si>
+    <t>iaest-measure:orden</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:siglas</t>
+    <t>iaest-measure:siglas</t>
   </si>
   <si>
     <t>iaest-measure:diputados</t>
@@ -97,19 +100,19 @@
     <t>iaest-measure:votos</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
+    <t>xsd:int</t>
   </si>
   <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>URI-Provincia</t>
@@ -119,25 +122,19 @@
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>mapping-siglas.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,23 +145,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,15 +170,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -198,7 +191,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -233,7 +226,7 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -259,112 +252,107 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
+      <c r="A5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
